--- a/Data/Predictions/Graph Neural Network/Transductive/reformatted_exclude_previous_rating_model_2_predictions.xlsx
+++ b/Data/Predictions/Graph Neural Network/Transductive/reformatted_exclude_previous_rating_model_2_predictions.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -4895,7 +4895,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -6875,7 +6875,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -8107,7 +8107,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -8503,7 +8503,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
